--- a/data/trans_orig/IP2903-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2903-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B8B59A-C532-4EAE-ACC7-D6FFE9280288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA232637-B3E6-4A14-81DB-907126BD5130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE8A33A-02EB-4926-B912-AE7344261BB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6357C503-6064-41E4-9531-6E8E17EEFD84}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="331">
   <si>
     <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2007 (Tasa respuesta: 96,44%)</t>
   </si>
@@ -106,958 +106,931 @@
     <t>40,3%</t>
   </si>
   <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
     <t>32,42%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2016 (Tasa respuesta: 97,37%)</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
+    <t>27,4%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2012 (Tasa respuesta: 97,86%)</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de lactancia recibido desde la 7ª semana hasta el 3er mes en 2015 (Tasa respuesta: 97,37%)</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>30,16%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>26,13%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>46,01%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94896932-E21E-4390-943A-B739D44DEFAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D3A6C9-8B1F-4822-BC45-BC24CDE613CA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2209,7 +2182,7 @@
         <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="H16" s="7">
         <v>75</v>
@@ -2218,13 +2191,13 @@
         <v>51445</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -2233,13 +2206,13 @@
         <v>90919</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2227,13 @@
         <v>40749</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -2269,13 +2242,13 @@
         <v>37134</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -2284,13 +2257,13 @@
         <v>77883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,13 +2278,13 @@
         <v>71871</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>114</v>
@@ -2320,13 +2293,13 @@
         <v>78677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>222</v>
@@ -2335,13 +2308,13 @@
         <v>150548</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2382,13 @@
         <v>226021</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>321</v>
@@ -2424,13 +2397,13 @@
         <v>213200</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>662</v>
@@ -2439,13 +2412,13 @@
         <v>439222</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,10 +2436,10 @@
         <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>202</v>
@@ -2475,13 +2448,13 @@
         <v>133750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M21" s="7">
         <v>448</v>
@@ -2490,13 +2463,13 @@
         <v>298347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2484,13 @@
         <v>305253</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>459</v>
@@ -2526,13 +2499,13 @@
         <v>309256</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>919</v>
@@ -2541,13 +2514,13 @@
         <v>614509</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,7 +2576,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD87A84B-6E88-4867-8A68-B7C78E036C5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6086A734-1031-49D7-911B-369E536D1AA2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2640,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2945,13 +2918,13 @@
         <v>29298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -2960,13 +2933,13 @@
         <v>36737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -2975,13 +2948,13 @@
         <v>66035</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,13 +2969,13 @@
         <v>14083</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -3014,10 +2987,10 @@
         <v>36</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -3026,13 +2999,13 @@
         <v>30817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,13 +3020,13 @@
         <v>39589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>54</v>
@@ -3062,13 +3035,13 @@
         <v>37530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>108</v>
@@ -3077,13 +3050,13 @@
         <v>77120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3124,13 @@
         <v>186793</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H12" s="7">
         <v>253</v>
@@ -3166,13 +3139,13 @@
         <v>173125</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>524</v>
@@ -3181,13 +3154,13 @@
         <v>359918</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,13 +3175,13 @@
         <v>97438</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -3217,13 +3190,13 @@
         <v>74118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>248</v>
@@ -3232,13 +3205,13 @@
         <v>171556</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3226,13 @@
         <v>198981</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -3268,13 +3241,13 @@
         <v>197349</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>566</v>
@@ -3283,13 +3256,13 @@
         <v>396330</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3330,13 @@
         <v>61443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -3372,13 +3345,13 @@
         <v>49846</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>159</v>
@@ -3387,13 +3360,13 @@
         <v>111290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3381,13 @@
         <v>43895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3423,13 +3396,13 @@
         <v>30372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>106</v>
@@ -3438,13 +3411,13 @@
         <v>74268</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3432,13 @@
         <v>62479</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
         <v>115</v>
@@ -3474,13 +3447,13 @@
         <v>81795</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -3489,13 +3462,13 @@
         <v>144274</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3536,13 @@
         <v>277534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>378</v>
@@ -3578,13 +3551,13 @@
         <v>259708</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -3593,13 +3566,13 @@
         <v>537242</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3587,13 @@
         <v>155416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>174</v>
@@ -3629,13 +3602,13 @@
         <v>121224</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>399</v>
@@ -3644,13 +3617,13 @@
         <v>276641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3638,13 @@
         <v>301690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>453</v>
@@ -3680,13 +3653,13 @@
         <v>316674</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>877</v>
@@ -3695,13 +3668,13 @@
         <v>618363</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,7 +3730,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3777,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0418E9-0B86-44E3-B5D8-CD23AC593324}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7130829-E6A1-45F2-8873-E067FE6219AF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3794,7 +3767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4083,13 +4056,13 @@
         <v>20762</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4098,13 +4071,13 @@
         <v>17049</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -4113,13 +4086,13 @@
         <v>37811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4107,13 @@
         <v>21667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -4149,13 +4122,13 @@
         <v>17740</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -4164,13 +4137,13 @@
         <v>39407</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4158,13 @@
         <v>24664</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4200,13 +4173,13 @@
         <v>23313</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4215,13 +4188,13 @@
         <v>47977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4262,13 @@
         <v>135703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>208</v>
@@ -4304,13 +4277,13 @@
         <v>137577</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>403</v>
@@ -4319,13 +4292,13 @@
         <v>273280</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4313,13 @@
         <v>133008</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>203</v>
@@ -4355,13 +4328,13 @@
         <v>133957</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>396</v>
@@ -4370,13 +4343,13 @@
         <v>266965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4364,13 @@
         <v>206597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4406,13 +4379,13 @@
         <v>189925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>574</v>
@@ -4421,13 +4394,13 @@
         <v>396523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4468,13 @@
         <v>44086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4510,13 +4483,13 @@
         <v>38951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -4525,13 +4498,13 @@
         <v>83037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4519,13 @@
         <v>43534</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4561,13 +4534,13 @@
         <v>47361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -4576,13 +4549,13 @@
         <v>90895</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4570,13 @@
         <v>93373</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -4612,13 +4585,13 @@
         <v>82187</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>258</v>
@@ -4627,13 +4600,13 @@
         <v>175560</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4674,13 @@
         <v>200551</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>291</v>
@@ -4716,13 +4689,13 @@
         <v>193578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -4731,13 +4704,13 @@
         <v>394129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4725,13 @@
         <v>198209</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>302</v>
@@ -4767,13 +4740,13 @@
         <v>199058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>590</v>
@@ -4782,13 +4755,13 @@
         <v>397267</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4776,13 @@
         <v>324634</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7">
         <v>443</v>
@@ -4818,13 +4791,13 @@
         <v>295425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>336</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7">
         <v>899</v>
@@ -4833,13 +4806,13 @@
         <v>620059</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4868,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
